--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Shank1-Sstr2.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Shank1-Sstr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,6 +92,9 @@
   </si>
   <si>
     <t>Sstr2</t>
+  </si>
+  <si>
+    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -443,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,123 +525,1239 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.09705537094783</v>
+        <v>0.04404166666666667</v>
       </c>
       <c r="H2">
-        <v>1.09705537094783</v>
+        <v>0.132125</v>
       </c>
       <c r="I2">
-        <v>0.9578824571863928</v>
+        <v>0.03438641876346828</v>
       </c>
       <c r="J2">
-        <v>0.9578824571863928</v>
+        <v>0.03438641876346828</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>1.08717340406359</v>
+        <v>0.2097636666666667</v>
       </c>
       <c r="N2">
-        <v>1.08717340406359</v>
+        <v>0.629291</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.1278901181979287</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.1278901181979287</v>
       </c>
       <c r="Q2">
-        <v>1.192689422079597</v>
+        <v>0.009238341486111112</v>
       </c>
       <c r="R2">
-        <v>1.192689422079597</v>
+        <v>0.083145073375</v>
       </c>
       <c r="S2">
-        <v>0.9578824571863928</v>
+        <v>0.004397683160063432</v>
       </c>
       <c r="T2">
-        <v>0.9578824571863928</v>
+        <v>0.004397683160063432</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G3">
+        <v>0.04404166666666667</v>
+      </c>
+      <c r="H3">
+        <v>0.132125</v>
+      </c>
+      <c r="I3">
+        <v>0.03438641876346828</v>
+      </c>
+      <c r="J3">
+        <v>0.03438641876346828</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1.093643</v>
+      </c>
+      <c r="N3">
+        <v>3.280929</v>
+      </c>
+      <c r="O3">
+        <v>0.6667795941925309</v>
+      </c>
+      <c r="P3">
+        <v>0.666779594192531</v>
+      </c>
+      <c r="Q3">
+        <v>0.04816586045833333</v>
+      </c>
+      <c r="R3">
+        <v>0.433492744125</v>
+      </c>
+      <c r="S3">
+        <v>0.02292816234883981</v>
+      </c>
+      <c r="T3">
+        <v>0.02292816234883981</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G4">
+        <v>0.04404166666666667</v>
+      </c>
+      <c r="H4">
+        <v>0.132125</v>
+      </c>
+      <c r="I4">
+        <v>0.03438641876346828</v>
+      </c>
+      <c r="J4">
+        <v>0.03438641876346828</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M4">
+        <v>0.02033233333333333</v>
+      </c>
+      <c r="N4">
+        <v>0.060997</v>
+      </c>
+      <c r="O4">
+        <v>0.01239635326060448</v>
+      </c>
+      <c r="P4">
+        <v>0.01239635326060448</v>
+      </c>
+      <c r="Q4">
+        <v>0.0008954698472222223</v>
+      </c>
+      <c r="R4">
+        <v>0.008059228625</v>
+      </c>
+      <c r="S4">
+        <v>0.0004262661943590313</v>
+      </c>
+      <c r="T4">
+        <v>0.0004262661943590313</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.04404166666666667</v>
+      </c>
+      <c r="H5">
+        <v>0.132125</v>
+      </c>
+      <c r="I5">
+        <v>0.03438641876346828</v>
+      </c>
+      <c r="J5">
+        <v>0.03438641876346828</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.07372733333333333</v>
+      </c>
+      <c r="N5">
+        <v>0.221182</v>
+      </c>
+      <c r="O5">
+        <v>0.04495057473133138</v>
+      </c>
+      <c r="P5">
+        <v>0.04495057473133139</v>
+      </c>
+      <c r="Q5">
+        <v>0.003247074638888888</v>
+      </c>
+      <c r="R5">
+        <v>0.02922367175</v>
+      </c>
+      <c r="S5">
+        <v>0.001545689286370137</v>
+      </c>
+      <c r="T5">
+        <v>0.001545689286370137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.04404166666666667</v>
+      </c>
+      <c r="H6">
+        <v>0.132125</v>
+      </c>
+      <c r="I6">
+        <v>0.03438641876346828</v>
+      </c>
+      <c r="J6">
+        <v>0.03438641876346828</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.2427203333333333</v>
+      </c>
+      <c r="N6">
+        <v>0.7281610000000001</v>
+      </c>
+      <c r="O6">
+        <v>0.1479833596176045</v>
+      </c>
+      <c r="P6">
+        <v>0.1479833596176045</v>
+      </c>
+      <c r="Q6">
+        <v>0.01068980801388889</v>
+      </c>
+      <c r="R6">
+        <v>0.09620827212500001</v>
+      </c>
+      <c r="S6">
+        <v>0.005088617773835871</v>
+      </c>
+      <c r="T6">
+        <v>0.005088617773835871</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>20</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>0.0482368960911058</v>
-      </c>
-      <c r="H3">
-        <v>0.0482368960911058</v>
-      </c>
-      <c r="I3">
-        <v>0.04211754281360736</v>
-      </c>
-      <c r="J3">
-        <v>0.04211754281360736</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>1.08717340406359</v>
-      </c>
-      <c r="N3">
-        <v>1.08717340406359</v>
-      </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-      <c r="Q3">
-        <v>0.05244187052482917</v>
-      </c>
-      <c r="R3">
-        <v>0.05244187052482917</v>
-      </c>
-      <c r="S3">
-        <v>0.04211754281360736</v>
-      </c>
-      <c r="T3">
-        <v>0.04211754281360736</v>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1.160257666666667</v>
+      </c>
+      <c r="H7">
+        <v>3.480773</v>
+      </c>
+      <c r="I7">
+        <v>0.9058945543884487</v>
+      </c>
+      <c r="J7">
+        <v>0.9058945543884488</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.2097636666666667</v>
+      </c>
+      <c r="N7">
+        <v>0.629291</v>
+      </c>
+      <c r="O7">
+        <v>0.1278901181979287</v>
+      </c>
+      <c r="P7">
+        <v>0.1278901181979287</v>
+      </c>
+      <c r="Q7">
+        <v>0.2433799024381111</v>
+      </c>
+      <c r="R7">
+        <v>2.190419121943</v>
+      </c>
+      <c r="S7">
+        <v>0.1158549616355986</v>
+      </c>
+      <c r="T7">
+        <v>0.1158549616355987</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.160257666666667</v>
+      </c>
+      <c r="H8">
+        <v>3.480773</v>
+      </c>
+      <c r="I8">
+        <v>0.9058945543884487</v>
+      </c>
+      <c r="J8">
+        <v>0.9058945543884488</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1.093643</v>
+      </c>
+      <c r="N8">
+        <v>3.280929</v>
+      </c>
+      <c r="O8">
+        <v>0.6667795941925309</v>
+      </c>
+      <c r="P8">
+        <v>0.666779594192531</v>
+      </c>
+      <c r="Q8">
+        <v>1.268907675346333</v>
+      </c>
+      <c r="R8">
+        <v>11.420169078117</v>
+      </c>
+      <c r="S8">
+        <v>0.6040320033563534</v>
+      </c>
+      <c r="T8">
+        <v>0.6040320033563535</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.160257666666667</v>
+      </c>
+      <c r="H9">
+        <v>3.480773</v>
+      </c>
+      <c r="I9">
+        <v>0.9058945543884487</v>
+      </c>
+      <c r="J9">
+        <v>0.9058945543884488</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.02033233333333333</v>
+      </c>
+      <c r="N9">
+        <v>0.060997</v>
+      </c>
+      <c r="O9">
+        <v>0.01239635326060448</v>
+      </c>
+      <c r="P9">
+        <v>0.01239635326060448</v>
+      </c>
+      <c r="Q9">
+        <v>0.02359074563122222</v>
+      </c>
+      <c r="R9">
+        <v>0.212316710681</v>
+      </c>
+      <c r="S9">
+        <v>0.01122978891305709</v>
+      </c>
+      <c r="T9">
+        <v>0.01122978891305709</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.160257666666667</v>
+      </c>
+      <c r="H10">
+        <v>3.480773</v>
+      </c>
+      <c r="I10">
+        <v>0.9058945543884487</v>
+      </c>
+      <c r="J10">
+        <v>0.9058945543884488</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.07372733333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.221182</v>
+      </c>
+      <c r="O10">
+        <v>0.04495057473133138</v>
+      </c>
+      <c r="P10">
+        <v>0.04495057473133139</v>
+      </c>
+      <c r="Q10">
+        <v>0.08554270374288887</v>
+      </c>
+      <c r="R10">
+        <v>0.769884333686</v>
+      </c>
+      <c r="S10">
+        <v>0.0407204808657441</v>
+      </c>
+      <c r="T10">
+        <v>0.04072048086574412</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.160257666666667</v>
+      </c>
+      <c r="H11">
+        <v>3.480773</v>
+      </c>
+      <c r="I11">
+        <v>0.9058945543884487</v>
+      </c>
+      <c r="J11">
+        <v>0.9058945543884488</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.2427203333333333</v>
+      </c>
+      <c r="N11">
+        <v>0.7281610000000001</v>
+      </c>
+      <c r="O11">
+        <v>0.1479833596176045</v>
+      </c>
+      <c r="P11">
+        <v>0.1479833596176045</v>
+      </c>
+      <c r="Q11">
+        <v>0.2816181276058889</v>
+      </c>
+      <c r="R11">
+        <v>2.534563148453</v>
+      </c>
+      <c r="S11">
+        <v>0.1340573196176954</v>
+      </c>
+      <c r="T11">
+        <v>0.1340573196176954</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.02653233333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.079597</v>
+      </c>
+      <c r="I12">
+        <v>0.0207156539210277</v>
+      </c>
+      <c r="J12">
+        <v>0.0207156539210277</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.2097636666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.629291</v>
+      </c>
+      <c r="O12">
+        <v>0.1278901181979287</v>
+      </c>
+      <c r="P12">
+        <v>0.1278901181979287</v>
+      </c>
+      <c r="Q12">
+        <v>0.005565519525222223</v>
+      </c>
+      <c r="R12">
+        <v>0.050089675727</v>
+      </c>
+      <c r="S12">
+        <v>0.002649327428507618</v>
+      </c>
+      <c r="T12">
+        <v>0.002649327428507617</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.02653233333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.079597</v>
+      </c>
+      <c r="I13">
+        <v>0.0207156539210277</v>
+      </c>
+      <c r="J13">
+        <v>0.0207156539210277</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.093643</v>
+      </c>
+      <c r="N13">
+        <v>3.280929</v>
+      </c>
+      <c r="O13">
+        <v>0.6667795941925309</v>
+      </c>
+      <c r="P13">
+        <v>0.666779594192531</v>
+      </c>
+      <c r="Q13">
+        <v>0.02901690062366667</v>
+      </c>
+      <c r="R13">
+        <v>0.261152105613</v>
+      </c>
+      <c r="S13">
+        <v>0.01381277531489576</v>
+      </c>
+      <c r="T13">
+        <v>0.01381277531489576</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.02653233333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.079597</v>
+      </c>
+      <c r="I14">
+        <v>0.0207156539210277</v>
+      </c>
+      <c r="J14">
+        <v>0.0207156539210277</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.02033233333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.060997</v>
+      </c>
+      <c r="O14">
+        <v>0.01239635326060448</v>
+      </c>
+      <c r="P14">
+        <v>0.01239635326060448</v>
+      </c>
+      <c r="Q14">
+        <v>0.0005394642454444445</v>
+      </c>
+      <c r="R14">
+        <v>0.004855178209</v>
+      </c>
+      <c r="S14">
+        <v>0.0002567985640294859</v>
+      </c>
+      <c r="T14">
+        <v>0.0002567985640294858</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.02653233333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.079597</v>
+      </c>
+      <c r="I15">
+        <v>0.0207156539210277</v>
+      </c>
+      <c r="J15">
+        <v>0.0207156539210277</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.07372733333333333</v>
+      </c>
+      <c r="N15">
+        <v>0.221182</v>
+      </c>
+      <c r="O15">
+        <v>0.04495057473133138</v>
+      </c>
+      <c r="P15">
+        <v>0.04495057473133139</v>
+      </c>
+      <c r="Q15">
+        <v>0.001956158183777778</v>
+      </c>
+      <c r="R15">
+        <v>0.017605423654</v>
+      </c>
+      <c r="S15">
+        <v>0.0009311805496855538</v>
+      </c>
+      <c r="T15">
+        <v>0.0009311805496855538</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.02653233333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.079597</v>
+      </c>
+      <c r="I16">
+        <v>0.0207156539210277</v>
+      </c>
+      <c r="J16">
+        <v>0.0207156539210277</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.2427203333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.7281610000000001</v>
+      </c>
+      <c r="O16">
+        <v>0.1479833596176045</v>
+      </c>
+      <c r="P16">
+        <v>0.1479833596176045</v>
+      </c>
+      <c r="Q16">
+        <v>0.006439936790777779</v>
+      </c>
+      <c r="R16">
+        <v>0.05795943111700001</v>
+      </c>
+      <c r="S16">
+        <v>0.003065572063909281</v>
+      </c>
+      <c r="T16">
+        <v>0.003065572063909281</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.04995500000000001</v>
+      </c>
+      <c r="H17">
+        <v>0.149865</v>
+      </c>
+      <c r="I17">
+        <v>0.03900337292705525</v>
+      </c>
+      <c r="J17">
+        <v>0.03900337292705525</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.2097636666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.629291</v>
+      </c>
+      <c r="O17">
+        <v>0.1278901181979287</v>
+      </c>
+      <c r="P17">
+        <v>0.1278901181979287</v>
+      </c>
+      <c r="Q17">
+        <v>0.01047874396833334</v>
+      </c>
+      <c r="R17">
+        <v>0.09430869571500003</v>
+      </c>
+      <c r="S17">
+        <v>0.004988145973758989</v>
+      </c>
+      <c r="T17">
+        <v>0.004988145973758989</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.04995500000000001</v>
+      </c>
+      <c r="H18">
+        <v>0.149865</v>
+      </c>
+      <c r="I18">
+        <v>0.03900337292705525</v>
+      </c>
+      <c r="J18">
+        <v>0.03900337292705525</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1.093643</v>
+      </c>
+      <c r="N18">
+        <v>3.280929</v>
+      </c>
+      <c r="O18">
+        <v>0.6667795941925309</v>
+      </c>
+      <c r="P18">
+        <v>0.666779594192531</v>
+      </c>
+      <c r="Q18">
+        <v>0.05463293606500001</v>
+      </c>
+      <c r="R18">
+        <v>0.4916964245850001</v>
+      </c>
+      <c r="S18">
+        <v>0.02600665317244185</v>
+      </c>
+      <c r="T18">
+        <v>0.02600665317244185</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.04995500000000001</v>
+      </c>
+      <c r="H19">
+        <v>0.149865</v>
+      </c>
+      <c r="I19">
+        <v>0.03900337292705525</v>
+      </c>
+      <c r="J19">
+        <v>0.03900337292705525</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.02033233333333333</v>
+      </c>
+      <c r="N19">
+        <v>0.060997</v>
+      </c>
+      <c r="O19">
+        <v>0.01239635326060448</v>
+      </c>
+      <c r="P19">
+        <v>0.01239635326060448</v>
+      </c>
+      <c r="Q19">
+        <v>0.001015701711666667</v>
+      </c>
+      <c r="R19">
+        <v>0.009141315405000003</v>
+      </c>
+      <c r="S19">
+        <v>0.0004834995891588741</v>
+      </c>
+      <c r="T19">
+        <v>0.0004834995891588741</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.04995500000000001</v>
+      </c>
+      <c r="H20">
+        <v>0.149865</v>
+      </c>
+      <c r="I20">
+        <v>0.03900337292705525</v>
+      </c>
+      <c r="J20">
+        <v>0.03900337292705525</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.07372733333333333</v>
+      </c>
+      <c r="N20">
+        <v>0.221182</v>
+      </c>
+      <c r="O20">
+        <v>0.04495057473133138</v>
+      </c>
+      <c r="P20">
+        <v>0.04495057473133139</v>
+      </c>
+      <c r="Q20">
+        <v>0.003683048936666667</v>
+      </c>
+      <c r="R20">
+        <v>0.03314744043</v>
+      </c>
+      <c r="S20">
+        <v>0.001753224029531584</v>
+      </c>
+      <c r="T20">
+        <v>0.001753224029531585</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.04995500000000001</v>
+      </c>
+      <c r="H21">
+        <v>0.149865</v>
+      </c>
+      <c r="I21">
+        <v>0.03900337292705525</v>
+      </c>
+      <c r="J21">
+        <v>0.03900337292705525</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>0.2427203333333333</v>
+      </c>
+      <c r="N21">
+        <v>0.7281610000000001</v>
+      </c>
+      <c r="O21">
+        <v>0.1479833596176045</v>
+      </c>
+      <c r="P21">
+        <v>0.1479833596176045</v>
+      </c>
+      <c r="Q21">
+        <v>0.01212509425166667</v>
+      </c>
+      <c r="R21">
+        <v>0.109125848265</v>
+      </c>
+      <c r="S21">
+        <v>0.005771850162163957</v>
+      </c>
+      <c r="T21">
+        <v>0.005771850162163957</v>
       </c>
     </row>
   </sheetData>
